--- a/medicine/Enfance/Lothar_Meggendorfer/Lothar_Meggendorfer.xlsx
+++ b/medicine/Enfance/Lothar_Meggendorfer/Lothar_Meggendorfer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lothar Meggendorfer, né le 6 novembre 1847 à Munich et mort le 7 juillet 1925 dans la même ville, est un illustrateur allemand.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie le dessin à l'académie de peinture de Munich où il est admis en 1862.
 Ses premiers dessins sont publiés en 1866 dans le journal satirique Fliegende Blätter puis, à partir de 1868, dans le Münchener Bilderbogen. En 1888, il publie son propre périodique, le Meggendorfer Blätter, l'un des ancêtres de la bande dessinée allemande, où travaillent des artistes comme Koloman Moser, Josef Mukarovsky (1851-1921), Otto Bromberger (1862-1943) et Victor Schramm (1865-1929). Le journal, qu'il quitte en 1905, paraît jusqu'en 1944.
-Christophe s'inspirera plus que de raison des aventures de lutins créés par Meggendorfer pour ses propres Plick et Plock[1].
+Christophe s'inspirera plus que de raison des aventures de lutins créés par Meggendorfer pour ses propres Plick et Plock.
 Il relate aussi, en plusieurs planches coloriées dans le style des images d'Épinal, les aventures du Guignol bavarois, le Munchener Kasperle.
 Il est surtout célèbre pour ses créations de livres à système ou livres animés auxquels il apporte un soin particulier. C'est en 1878 qu'il crée son premier livre, Lebende Bilder (Images animées), comme cadeau de Noël pour son fils Adolf. Il est reconnu pour son habileté à créer des mouvements réalistes en concevant un mécanisme complexe constitué de pièces articulées – jusqu'à six – bougeant en même temps. D'autres, se présentant comme de simples livres, laissent, une fois dépliés, apparaître un panorama en plusieurs dimensions (Le Cirque). Certains, enfin, permettent de découvrir un nouveau décor en tournant un disque grâce à une tirette.
 Ses livres, près de deux cents, connaîtront un succès mondial et seront publiés en France, Grande-Bretagne, Italie et même aux États-Unis.
@@ -547,9 +561,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Meggendorfer[2] a été créé en 1998 pour récompenser le meilleur livre animé  par The Movable Book Society, elle même créée en 1993. Il est attribué tous les deux ans à l'occasion de la réunion de l'association. Il a été attribué à Robert Sabuda en 1998, 2000 et 2002, en 2006 à David A. Carter, et en 2010 à Marion Bataille.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Meggendorfer a été créé en 1998 pour récompenser le meilleur livre animé  par The Movable Book Society, elle même créée en 1993. Il est attribué tous les deux ans à l'occasion de la réunion de l'association. Il a été attribué à Robert Sabuda en 1998, 2000 et 2002, en 2006 à David A. Carter, et en 2010 à Marion Bataille.
 </t>
         </is>
       </c>
